--- a/doc/ProductBacklog.xlsx
+++ b/doc/ProductBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Armann\AndroidStudioProjects\CMPUT301Project\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F207F8C6-EEFE-4BB5-B90E-592039971F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24318660-D279-46CE-8AFB-C6CD0C2489B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14115" yWindow="0" windowWidth="24390" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52695" yWindow="3390" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,81 +57,15 @@
     <t>Scannable QR code</t>
   </si>
   <si>
-    <t>Add new QR code to account</t>
-  </si>
-  <si>
-    <t>View previously added QR codes</t>
-  </si>
-  <si>
-    <t>Delete QR codes from account</t>
-  </si>
-  <si>
-    <t>Sort QR codes by points</t>
-  </si>
-  <si>
-    <t>Sum up QR code points</t>
-  </si>
-  <si>
-    <t>Total amount of QR codes</t>
-  </si>
-  <si>
-    <t>See other peoples account</t>
-  </si>
-  <si>
     <t>Game QR Code</t>
   </si>
   <si>
     <t>Scan QR code</t>
   </si>
   <si>
-    <t>Record location of object, or not if chosen</t>
-  </si>
-  <si>
-    <t>Record a photo of object or location or not if chosen</t>
-  </si>
-  <si>
-    <t>Comment on QR code</t>
-  </si>
-  <si>
-    <t>Browse codes other players have found</t>
-  </si>
-  <si>
-    <t>See other players with the same QR code</t>
-  </si>
-  <si>
-    <t>QR codes have a unique name</t>
-  </si>
-  <si>
-    <t>QR codes have a unique image</t>
-  </si>
-  <si>
-    <t>Have unique username</t>
-  </si>
-  <si>
-    <t>Save profile to phone to avoid log in</t>
-  </si>
-  <si>
-    <t>Search other players</t>
-  </si>
-  <si>
-    <t>Search QR codes by location</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
-    <t>See a map of QR codes</t>
-  </si>
-  <si>
-    <t>See highscores and own rank</t>
-  </si>
-  <si>
-    <t>Hide actual QR code</t>
-  </si>
-  <si>
-    <t>Avoid showing large images</t>
-  </si>
-  <si>
     <t>Add QR codes from main page</t>
   </si>
   <si>
@@ -211,6 +145,93 @@
   </si>
   <si>
     <t>Search database by QR code location, ignore null</t>
+  </si>
+  <si>
+    <t>US 01.01.01
+ Add new QR code to account</t>
+  </si>
+  <si>
+    <t>US 01.02.01
+View previously added QR codes</t>
+  </si>
+  <si>
+    <t>US 01.03.01
+Delete QR codes from account</t>
+  </si>
+  <si>
+    <t>US 01.04.01
+Sort QR codes by points</t>
+  </si>
+  <si>
+    <t>US 01.05.01
+Sum up QR code points</t>
+  </si>
+  <si>
+    <t>US 01.06.01
+Total amount of QR codes</t>
+  </si>
+  <si>
+    <t>US 01.07.01
+See other peoples account</t>
+  </si>
+  <si>
+    <t>US 02.01.01
+Record a photo of object or location or not if chosen</t>
+  </si>
+  <si>
+    <t>US 02.02.01
+Comment on QR code</t>
+  </si>
+  <si>
+    <t>US 02.03.01 Browse codes other players have found</t>
+  </si>
+  <si>
+    <t>US 02.04.01
+See other players with the same QR code</t>
+  </si>
+  <si>
+    <t>US 02.05.01
+QR codes have a unique name</t>
+  </si>
+  <si>
+    <t>US 02.06.01
+QR codes have a unique image</t>
+  </si>
+  <si>
+    <t>US 04.01.01
+Have unique username</t>
+  </si>
+  <si>
+    <t>US 04.02.01 
+Save profile to phone to avoid log in</t>
+  </si>
+  <si>
+    <t>US 05.01.01
+Search other players</t>
+  </si>
+  <si>
+    <t>US 05.02.01
+Search QR codes by location</t>
+  </si>
+  <si>
+    <t>US 06.01.01
+See a map of QR codes</t>
+  </si>
+  <si>
+    <t>US 07.01.01
+See highscores and own rank</t>
+  </si>
+  <si>
+    <t>US 08.01.01
+Hide actual QR code</t>
+  </si>
+  <si>
+    <t>US 08.02.01
+Record location of object, or not if chosen</t>
+  </si>
+  <si>
+    <t>US 09.01.01 
+Avoid showing large images</t>
   </si>
 </sst>
 </file>
@@ -321,12 +342,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
@@ -625,7 +643,7 @@
   <dimension ref="A2:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B2" activeCellId="1" sqref="B10:E10 B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,24 +656,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -667,339 +685,339 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:5" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>8</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E13" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E15" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D16">
         <v>8</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>48</v>
+      <c r="E16" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
+      <c r="A20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>47</v>
+      <c r="E20" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E21" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>57</v>
+      <c r="E23" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E26" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>30</v>
+      <c r="E28" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D32">
         <v>8</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D33">
         <v>5</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E33" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>7</v>
       </c>
     </row>
